--- a/data/annotations/new_annotation_structure_out/agreement-statistics-gpt-4o-1-gpt-4o-2-gpt-4o-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/agreement-statistics-gpt-4o-1-gpt-4o-2-gpt-4o-3.xlsx
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8896572017066353</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9267406934516645</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9081989475791499</v>
       </c>
     </row>
     <row r="7">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9527102293028437</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9211837155047395</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.9397254613772541</v>
       </c>
     </row>
     <row r="9">
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9081989475791499</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9211837155047395</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9397254613772541</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.9230360414870478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 3: 1.000</t>
+          <t>Fleiss' Kappa for iteration 3: 0.923</t>
         </is>
       </c>
     </row>
@@ -593,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.901514136406271</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9395523057599139</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.9205332210830924</v>
       </c>
     </row>
     <row r="17">
@@ -612,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9395523057599139</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.9205332210830924</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.9395523057599139</v>
       </c>
     </row>
     <row r="19">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9205332210830924</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.9205332210830924</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9395523057599139</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9268729159753663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 4: 1.000</t>
+          <t>Fleiss' Kappa for iteration 4: 0.927</t>
         </is>
       </c>
     </row>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.8885285772192947</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.8479935143899473</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.8682610458046209</v>
       </c>
     </row>
     <row r="27">
@@ -722,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.8994530244530244</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.8939908008361596</v>
       </c>
     </row>
     <row r="28">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.8737232694214858</v>
       </c>
     </row>
     <row r="29">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.8682610458046209</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.8939908008361596</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.8737232694214858</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.8786583720207554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 5: 1.000</t>
+          <t>Fleiss' Kappa for iteration 5: 0.879</t>
         </is>
       </c>
     </row>
@@ -813,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.8984825817482368</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9099309117111007</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.9042067467296688</v>
       </c>
     </row>
     <row r="37">
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9261330660053817</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.9123078238768092</v>
       </c>
     </row>
     <row r="38">
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.9180319888582412</v>
       </c>
     </row>
     <row r="39">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.9042067467296688</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.9123078238768092</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9180319888582412</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.9115155198215731</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 6: 1.000</t>
+          <t>Fleiss' Kappa for iteration 6: 0.912</t>
         </is>
       </c>
     </row>
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.8534829202947086</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.884879437374414</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0.8691811788345614</v>
       </c>
     </row>
     <row r="47">
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9366848170191212</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.8950838686569149</v>
       </c>
     </row>
     <row r="48">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.9107821271967675</v>
       </c>
     </row>
     <row r="49">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.8691811788345614</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0.8950838686569149</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9107821271967675</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.891682391562748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 7: 1.000</t>
+          <t>Fleiss' Kappa for iteration 7: 0.892</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.9343885008277143</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9338691626818598</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0.9341288317547871</v>
       </c>
     </row>
     <row r="57">
@@ -1052,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9493311714633158</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0.9418598361455151</v>
       </c>
     </row>
     <row r="58">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.9416001670725878</v>
       </c>
     </row>
     <row r="59">
@@ -1078,22 +1078,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9341288317547871</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.9418598361455151</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9416001670725878</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.9391962783242965</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 8: 1.000</t>
+          <t>Fleiss' Kappa for iteration 8: 0.939</t>
         </is>
       </c>
     </row>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.9279234753240869</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9426760886331895</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.9352997819786382</v>
       </c>
     </row>
     <row r="67">
@@ -1162,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9322535592937694</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.9300885173089282</v>
       </c>
     </row>
     <row r="68">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.9374648239634795</v>
       </c>
     </row>
     <row r="69">
@@ -1188,22 +1188,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.9352997819786382</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.9300885173089282</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9374648239634795</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.9342843744170154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 9: 1.000</t>
+          <t>Fleiss' Kappa for iteration 9: 0.934</t>
         </is>
       </c>
     </row>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.9273376515528982</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.9273376515528982</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0.9273376515528982</v>
       </c>
     </row>
     <row r="77">
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.9480983225377844</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0.9377179870453413</v>
       </c>
     </row>
     <row r="78">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.9377179870453413</v>
       </c>
     </row>
     <row r="79">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0.9273376515528982</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.9377179870453413</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.9377179870453413</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.9342578752145269</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 10: 1.000</t>
+          <t>Fleiss' Kappa for iteration 10: 0.934</t>
         </is>
       </c>
     </row>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.9333415374518008</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.9128312412831241</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0.9230863893674625</v>
       </c>
     </row>
     <row r="87">
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.9290629211889054</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0.9312022293203531</v>
       </c>
     </row>
     <row r="88">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0.9209470812360148</v>
       </c>
     </row>
     <row r="89">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.9230863893674625</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9312022293203531</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9209470812360148</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0.9250785666412767</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 11: 1.000</t>
+          <t>Fleiss' Kappa for iteration 11: 0.925</t>
         </is>
       </c>
     </row>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0.9261322865223081</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.9155797560254949</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.9208560212739014</v>
       </c>
     </row>
     <row r="97">
@@ -1492,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9683424085095605</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0.9472373475159344</v>
       </c>
     </row>
     <row r="98">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0.9419610822675277</v>
       </c>
     </row>
     <row r="99">
@@ -1518,22 +1518,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.9208560212739014</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0.9472373475159344</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9419610822675277</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0.9366848170191212</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 12: 1.000</t>
+          <t>Fleiss' Kappa for iteration 12: 0.937</t>
         </is>
       </c>
     </row>
@@ -1583,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0.9248843218556577</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0.9055891238670695</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0.9152367228613636</v>
       </c>
     </row>
     <row r="107">
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0.9213960069171514</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0.9231401643864046</v>
       </c>
     </row>
     <row r="108">
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0.9134925653921104</v>
       </c>
     </row>
     <row r="109">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.9152367228613636</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0.9231401643864046</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.9134925653921104</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0.9172898175466262</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 13: 1.000</t>
+          <t>Fleiss' Kappa for iteration 13: 0.917</t>
         </is>
       </c>
     </row>
@@ -1693,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="117">
@@ -1712,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0.6825396825396826</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.8015873015873016</v>
       </c>
     </row>
     <row r="119">
@@ -1738,22 +1738,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.8015873015873016</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0.7354497354497355</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 14: 1.000</t>
+          <t>Fleiss' Kappa for iteration 14: 0.735</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Average Fleiss' Kappa across all iterations: 1.000</t>
+          <t>Average Fleiss' Kappa across all iterations: 0.904</t>
         </is>
       </c>
     </row>
@@ -1798,12 +1798,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>gpt-4o-1-gpt-4o-2</t>
+          <t>gpt-4o-2-gpt-4o-3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.922</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -1828,12 +1828,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>gpt-4o-2-gpt-4o-3</t>
+          <t>gpt-4o-1-gpt-4o-2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="C130" t="n">
